--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd28-Cd86.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd28-Cd86.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="H2">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="I2">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="J2">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.295844</v>
+        <v>0.101371</v>
       </c>
       <c r="N2">
-        <v>0.887532</v>
+        <v>0.304113</v>
       </c>
       <c r="O2">
-        <v>0.001426310468785249</v>
+        <v>0.0004873780190420389</v>
       </c>
       <c r="P2">
-        <v>0.001426654776365869</v>
+        <v>0.0004888126654476159</v>
       </c>
       <c r="Q2">
-        <v>1.027751602845334</v>
+        <v>0.4336424646863333</v>
       </c>
       <c r="R2">
-        <v>9.249764425608001</v>
+        <v>3.902782182177</v>
       </c>
       <c r="S2">
-        <v>0.0007772582507044762</v>
+        <v>0.0001723689290137485</v>
       </c>
       <c r="T2">
-        <v>0.0007793358302230265</v>
+        <v>0.0001744497325048468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="H3">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="I3">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="J3">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.51221133333333</v>
+        <v>123.540774</v>
       </c>
       <c r="N3">
-        <v>274.536634</v>
+        <v>370.6223219999999</v>
       </c>
       <c r="O3">
-        <v>0.4411947683455518</v>
+        <v>0.5939672855455723</v>
       </c>
       <c r="P3">
-        <v>0.4413012715975408</v>
+        <v>0.5957156882185389</v>
       </c>
       <c r="Q3">
-        <v>317.9101887405329</v>
+        <v>528.4797992188819</v>
       </c>
       <c r="R3">
-        <v>2861.191698664797</v>
+        <v>4756.318192969937</v>
       </c>
       <c r="S3">
-        <v>0.240426107337127</v>
+        <v>0.2100659054750327</v>
       </c>
       <c r="T3">
-        <v>0.2410687564899352</v>
+        <v>0.2126017793820888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="H4">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="I4">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="J4">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.150175</v>
+        <v>1.8313505</v>
       </c>
       <c r="N4">
-        <v>0.30035</v>
+        <v>3.662701</v>
       </c>
       <c r="O4">
-        <v>0.0007240173018544393</v>
+        <v>0.008804884817764917</v>
       </c>
       <c r="P4">
-        <v>0.0004827947184794339</v>
+        <v>0.005887201923454927</v>
       </c>
       <c r="Q4">
-        <v>0.5217026438166668</v>
+        <v>7.834107826938166</v>
       </c>
       <c r="R4">
-        <v>3.130215862900001</v>
+        <v>47.004646961629</v>
       </c>
       <c r="S4">
-        <v>0.0003945483356077687</v>
+        <v>0.003113986488579503</v>
       </c>
       <c r="T4">
-        <v>0.0002637352981159958</v>
+        <v>0.002101051943505325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.473964666666667</v>
+        <v>4.277776333333333</v>
       </c>
       <c r="H5">
-        <v>10.421894</v>
+        <v>12.833329</v>
       </c>
       <c r="I5">
-        <v>0.5449432418219904</v>
+        <v>0.3536657835996513</v>
       </c>
       <c r="J5">
-        <v>0.5462679851731445</v>
+        <v>0.3568846407551645</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.460846</v>
+        <v>82.51906066666666</v>
       </c>
       <c r="N5">
-        <v>346.382538</v>
+        <v>247.557182</v>
       </c>
       <c r="O5">
-        <v>0.5566549038838084</v>
+        <v>0.3967404516176207</v>
       </c>
       <c r="P5">
-        <v>0.5567892789076139</v>
+        <v>0.3979082971925585</v>
       </c>
       <c r="Q5">
-        <v>401.1068993874414</v>
+        <v>352.9980847687642</v>
       </c>
       <c r="R5">
-        <v>3609.962094486973</v>
+        <v>3176.982762918878</v>
       </c>
       <c r="S5">
-        <v>0.3033453278985511</v>
+        <v>0.1403135227070254</v>
       </c>
       <c r="T5">
-        <v>0.3041561575548702</v>
+        <v>0.1420073596970655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="H6">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="I6">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="J6">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.295844</v>
+        <v>0.101371</v>
       </c>
       <c r="N6">
-        <v>0.887532</v>
+        <v>0.304113</v>
       </c>
       <c r="O6">
-        <v>0.001426310468785249</v>
+        <v>0.0004873780190420389</v>
       </c>
       <c r="P6">
-        <v>0.001426654776365869</v>
+        <v>0.0004888126654476159</v>
       </c>
       <c r="Q6">
-        <v>0.013720948876</v>
+        <v>0.0331767515655</v>
       </c>
       <c r="R6">
-        <v>0.082325693256</v>
+        <v>0.199060509393</v>
       </c>
       <c r="S6">
-        <v>1.037674929607504E-05</v>
+        <v>1.318745649053744E-05</v>
       </c>
       <c r="T6">
-        <v>6.93632394839436E-06</v>
+        <v>8.897768564813152E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="H7">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="I7">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="J7">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>91.51221133333333</v>
+        <v>123.540774</v>
       </c>
       <c r="N7">
-        <v>274.536634</v>
+        <v>370.6223219999999</v>
       </c>
       <c r="O7">
-        <v>0.4411947683455518</v>
+        <v>0.5939672855455723</v>
       </c>
       <c r="P7">
-        <v>0.4413012715975408</v>
+        <v>0.5957156882185389</v>
       </c>
       <c r="Q7">
-        <v>4.244244849428667</v>
+        <v>40.43248628510699</v>
       </c>
       <c r="R7">
-        <v>25.465469096572</v>
+        <v>242.5949177106419</v>
       </c>
       <c r="S7">
-        <v>0.00320979730714646</v>
+        <v>0.01607154493822019</v>
       </c>
       <c r="T7">
-        <v>0.002145584642723617</v>
+        <v>0.01084370495871488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="H8">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="I8">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="J8">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.150175</v>
+        <v>1.8313505</v>
       </c>
       <c r="N8">
-        <v>0.30035</v>
+        <v>3.662701</v>
       </c>
       <c r="O8">
-        <v>0.0007240173018544393</v>
+        <v>0.008804884817764917</v>
       </c>
       <c r="P8">
-        <v>0.0004827947184794339</v>
+        <v>0.005887201923454927</v>
       </c>
       <c r="Q8">
-        <v>0.006964966325</v>
+        <v>0.59936530731525</v>
       </c>
       <c r="R8">
-        <v>0.0278598653</v>
+        <v>2.397461229261</v>
       </c>
       <c r="S8">
-        <v>5.267398782933133E-06</v>
+        <v>0.0002382422491410165</v>
       </c>
       <c r="T8">
-        <v>2.347323699765469E-06</v>
+        <v>0.0001071636721222365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.046379</v>
+        <v>0.3272805</v>
       </c>
       <c r="H9">
-        <v>0.09275800000000001</v>
+        <v>0.6545609999999999</v>
       </c>
       <c r="I9">
-        <v>0.007275238822941998</v>
+        <v>0.02705796317293487</v>
       </c>
       <c r="J9">
-        <v>0.004861949830682459</v>
+        <v>0.01820281918567982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.460846</v>
+        <v>82.51906066666666</v>
       </c>
       <c r="N9">
-        <v>346.382538</v>
+        <v>247.557182</v>
       </c>
       <c r="O9">
-        <v>0.5566549038838084</v>
+        <v>0.3967404516176207</v>
       </c>
       <c r="P9">
-        <v>0.5567892789076139</v>
+        <v>0.3979082971925585</v>
       </c>
       <c r="Q9">
-        <v>5.354958576634001</v>
+        <v>27.006879434517</v>
       </c>
       <c r="R9">
-        <v>32.12975145980401</v>
+        <v>162.041276607102</v>
       </c>
       <c r="S9">
-        <v>0.00404979736771653</v>
+        <v>0.01073498852908313</v>
       </c>
       <c r="T9">
-        <v>0.002707081540310681</v>
+        <v>0.007243052786277891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="H10">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="I10">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="J10">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.295844</v>
+        <v>0.101371</v>
       </c>
       <c r="N10">
-        <v>0.887532</v>
+        <v>0.304113</v>
       </c>
       <c r="O10">
-        <v>0.001426310468785249</v>
+        <v>0.0004873780190420389</v>
       </c>
       <c r="P10">
-        <v>0.001426654776365869</v>
+        <v>0.0004888126654476159</v>
       </c>
       <c r="Q10">
-        <v>0.8445066181626666</v>
+        <v>0.7593171101766666</v>
       </c>
       <c r="R10">
-        <v>7.600559563464</v>
+        <v>6.83385399159</v>
       </c>
       <c r="S10">
-        <v>0.0006386754687846974</v>
+        <v>0.000301821633537753</v>
       </c>
       <c r="T10">
-        <v>0.0006403826221944486</v>
+        <v>0.000305465164377956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="H11">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="I11">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="J11">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>91.51221133333333</v>
+        <v>123.540774</v>
       </c>
       <c r="N11">
-        <v>274.536634</v>
+        <v>370.6223219999999</v>
       </c>
       <c r="O11">
-        <v>0.4411947683455518</v>
+        <v>0.5939672855455723</v>
       </c>
       <c r="P11">
-        <v>0.4413012715975408</v>
+        <v>0.5957156882185389</v>
       </c>
       <c r="Q11">
-        <v>261.2277690732298</v>
+        <v>925.3792850289398</v>
       </c>
       <c r="R11">
-        <v>2351.049921659068</v>
+        <v>8328.413565260458</v>
       </c>
       <c r="S11">
-        <v>0.1975588637012782</v>
+        <v>0.3678298351323195</v>
       </c>
       <c r="T11">
-        <v>0.198086930464882</v>
+        <v>0.3722702038777352</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="H12">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="I12">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="J12">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,28 +1175,28 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.150175</v>
+        <v>1.8313505</v>
       </c>
       <c r="N12">
-        <v>0.30035</v>
+        <v>3.662701</v>
       </c>
       <c r="O12">
-        <v>0.0007240173018544393</v>
+        <v>0.008804884817764917</v>
       </c>
       <c r="P12">
-        <v>0.0004827947184794339</v>
+        <v>0.005887201923454927</v>
       </c>
       <c r="Q12">
-        <v>0.4286846492833333</v>
+        <v>13.71768818873833</v>
       </c>
       <c r="R12">
-        <v>2.5721078957</v>
+        <v>82.30612913243</v>
       </c>
       <c r="S12">
-        <v>0.0003242015674637374</v>
+        <v>0.005452656080044398</v>
       </c>
       <c r="T12">
-        <v>0.0002167120966636726</v>
+        <v>0.003678986307827366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.854567333333333</v>
+        <v>7.490476666666666</v>
       </c>
       <c r="H13">
-        <v>8.563701999999999</v>
+        <v>22.47143</v>
       </c>
       <c r="I13">
-        <v>0.4477815193550675</v>
+        <v>0.6192762532274139</v>
       </c>
       <c r="J13">
-        <v>0.4488700649961731</v>
+        <v>0.6249125400591558</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>115.460846</v>
+        <v>82.51906066666666</v>
       </c>
       <c r="N13">
-        <v>346.382538</v>
+        <v>247.557182</v>
       </c>
       <c r="O13">
-        <v>0.5566549038838084</v>
+        <v>0.3967404516176207</v>
       </c>
       <c r="P13">
-        <v>0.5567892789076139</v>
+        <v>0.3979082971925585</v>
       </c>
       <c r="Q13">
-        <v>329.5907592706307</v>
+        <v>618.1070984789177</v>
       </c>
       <c r="R13">
-        <v>2966.316833435676</v>
+        <v>5562.963886310259</v>
       </c>
       <c r="S13">
-        <v>0.2492597786175408</v>
+        <v>0.2456919403815122</v>
       </c>
       <c r="T13">
-        <v>0.249926039812433</v>
+        <v>0.2486578847092152</v>
       </c>
     </row>
   </sheetData>
